--- a/db_initial_setup/install_script_initial_config.xlsx
+++ b/db_initial_setup/install_script_initial_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\depat\Documents\DATA_ANALYSIS\Garmin_Data_ETL_Project\2.DBs_Backup\ETL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\depat\Documents\DATA_ANALYSIS\Garmin-Data-ETL-Project\db_initial_setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E9CA2A-DCEC-4499-9E9A-F459DFD96979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA50EC1D-021B-44E1-82BF-703E09D069E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F6A704D-F837-49C7-9E6E-C26165817A8D}"/>
+    <workbookView xWindow="22150" yWindow="3460" windowWidth="26570" windowHeight="15800" xr2:uid="{7F6A704D-F837-49C7-9E6E-C26165817A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,10 @@
     <t>garmin_summary</t>
   </si>
   <si>
-    <t>CREATE TABLE [acc].[config]([Domain] varchar(20) NOT NULL, [TableName] [nchar](20) NOT NULL, [SchemaName] [nchar](10) NOT NULL, [IsActive] [nchar](1) NOT NULL ) ON [PRIMARY]</t>
-  </si>
-  <si>
-    <t>INSERT INTO [acc].[config] VALUES</t>
+    <t>CREATE TABLE [acc].[SrcTblConfig]([Domain] varchar(20) NOT NULL, [TableName] [nchar](20) NOT NULL, [SchemaName] [nchar](10) NOT NULL, [IsActive] [nchar](1) NOT NULL ) ON [PRIMARY]</t>
+  </si>
+  <si>
+    <t>INSERT INTO [acc].[SrcTblConfig] VALUES</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -376,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
